--- a/FinalSolutionBeunmethode.xlsx
+++ b/FinalSolutionBeunmethode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maarten Beltman\Documents\GitHub\Operations_optimization_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5647B2D-0775-4CBE-8E1B-2048D9190305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC33F4B8-9841-428D-B218-AB5D806A9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9925EAF3-7280-41B7-A2AA-AE7807879597}"/>
   </bookViews>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EAFE0-3502-4B8B-BFBF-A3451CA1AC57}">
-  <dimension ref="A2:U13"/>
+  <dimension ref="A2:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>46</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1035,30 +1035,348 @@
         <v>8</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>46</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
     </row>
